--- a/data/trans_orig/P14B26-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B26-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD6F7D72-886A-4F52-A2AC-69B315B371B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13855955-BEC0-4FF8-91BD-A8C056053E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4A07616C-645F-4F7B-81E8-33A3B065579A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F9D77F4-70EB-4078-919C-51E8B0F886D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="274">
   <si>
     <t>Población cuya hipoacusia le limita en 2012 (Tasa respuesta: 1,58%)</t>
   </si>
@@ -100,7 +100,7 @@
     <t>77,19%</t>
   </si>
   <si>
-    <t>23,99%</t>
+    <t>19,72%</t>
   </si>
   <si>
     <t>40,53%</t>
@@ -115,7 +115,7 @@
     <t>22,81%</t>
   </si>
   <si>
-    <t>76,01%</t>
+    <t>80,28%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -130,7 +130,7 @@
     <t>71,39%</t>
   </si>
   <si>
-    <t>27,62%</t>
+    <t>31,77%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -142,7 +142,7 @@
     <t>28,61%</t>
   </si>
   <si>
-    <t>72,38%</t>
+    <t>68,23%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -184,49 +184,49 @@
     <t>68,72%</t>
   </si>
   <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>66,83%</t>
+    <t>66,5%</t>
   </si>
   <si>
     <t>55,29%</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>31,28%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>68,05%</t>
   </si>
   <si>
-    <t>33,17%</t>
+    <t>33,5%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -289,55 +289,55 @@
     <t>61,68%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>38,32%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -373,7 +373,7 @@
     <t>19,88%</t>
   </si>
   <si>
-    <t>79,89%</t>
+    <t>80,01%</t>
   </si>
   <si>
     <t>75,19%</t>
@@ -385,13 +385,13 @@
     <t>80,12%</t>
   </si>
   <si>
-    <t>20,11%</t>
+    <t>19,99%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>58,85%</t>
+    <t>58,81%</t>
   </si>
   <si>
     <t>50,0%</t>
@@ -400,88 +400,88 @@
     <t>27,86%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>41,15%</t>
+    <t>41,19%</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
   </si>
   <si>
     <t>57,1%</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>51,84%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>54,25%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
   </si>
   <si>
     <t>42,9%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>48,16%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>45,75%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>58,25%</t>
   </si>
   <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>45,15%</t>
@@ -496,19 +496,19 @@
     <t>50,06%</t>
   </si>
   <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
   </si>
   <si>
     <t>41,75%</t>
   </si>
   <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>54,85%</t>
@@ -523,64 +523,64 @@
     <t>49,94%</t>
   </si>
   <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
   </si>
   <si>
     <t>51,19%</t>
   </si>
   <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
   </si>
   <si>
     <t>44,67%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
   </si>
   <si>
     <t>47,3%</t>
   </si>
   <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
   </si>
   <si>
     <t>48,81%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
   </si>
   <si>
     <t>55,33%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
   </si>
   <si>
     <t>52,7%</t>
   </si>
   <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
   </si>
   <si>
     <t>Población cuya hipoacusia le limita en 2023 (Tasa respuesta: 6,37%)</t>
@@ -589,31 +589,31 @@
     <t>23,44%</t>
   </si>
   <si>
-    <t>65,15%</t>
+    <t>68,89%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>60,47%</t>
+    <t>58,46%</t>
   </si>
   <si>
     <t>76,56%</t>
   </si>
   <si>
-    <t>34,85%</t>
+    <t>31,11%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>39,53%</t>
+    <t>41,54%</t>
   </si>
   <si>
     <t>27,54%</t>
   </si>
   <si>
-    <t>75,77%</t>
+    <t>67,89%</t>
   </si>
   <si>
     <t>54,07%</t>
@@ -622,16 +622,16 @@
     <t>30,92%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
   </si>
   <si>
     <t>72,46%</t>
   </si>
   <si>
-    <t>24,23%</t>
+    <t>32,11%</t>
   </si>
   <si>
     <t>45,93%</t>
@@ -640,151 +640,154 @@
     <t>69,08%</t>
   </si>
   <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
   </si>
   <si>
     <t>32,27%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>35,33%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
   </si>
   <si>
     <t>62,44%</t>
   </si>
   <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
   <si>
     <t>67,73%</t>
   </si>
   <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
   </si>
   <si>
     <t>64,67%</t>
   </si>
   <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
   </si>
   <si>
     <t>31,05%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
   </si>
   <si>
     <t>25,81%</t>
   </si>
   <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
   </si>
   <si>
     <t>77,45%</t>
   </si>
   <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>68,95%</t>
   </si>
   <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>74,19%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
   </si>
   <si>
     <t>34,03%</t>
   </si>
   <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
   </si>
   <si>
     <t>46,98%</t>
   </si>
   <si>
+    <t>40,87%</t>
+  </si>
+  <si>
     <t>53,76%</t>
   </si>
   <si>
     <t>41,42%</t>
   </si>
   <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
   </si>
   <si>
     <t>65,97%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
   </si>
   <si>
     <t>53,02%</t>
@@ -793,67 +796,70 @@
     <t>46,24%</t>
   </si>
   <si>
+    <t>59,13%</t>
+  </si>
+  <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
   </si>
   <si>
     <t>31,4%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>42,08%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>68,6%</t>
   </si>
   <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>57,92%</t>
   </si>
   <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A0AC52-759E-4668-935B-8CC89B7967C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B1F2AF-65CA-4CA1-B098-A3956CB0461A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2466,7 +2472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29B982B-39F1-4D5A-BCEF-B2BD43D84618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158F9228-7633-4EDE-8468-97A9CD5EDBBC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3673,7 +3679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB65C37C-4837-4E0A-AE60-93885365F7E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EBA33B-4892-4D0D-B215-FB9BF42FBE79}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4584,10 +4590,10 @@
         <v>241</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -4596,13 +4602,13 @@
         <v>92676</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4623,13 @@
         <v>63312</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -4632,13 +4638,13 @@
         <v>67739</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>247</v>
@@ -4647,13 +4653,13 @@
         <v>131051</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4727,13 @@
         <v>51365</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -4736,13 +4742,13 @@
         <v>74305</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>206</v>
@@ -4751,13 +4757,13 @@
         <v>125670</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4778,13 @@
         <v>112219</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H23" s="7">
         <v>187</v>
@@ -4787,13 +4793,13 @@
         <v>102264</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M23" s="7">
         <v>351</v>
@@ -4802,13 +4808,13 @@
         <v>214483</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B26-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B26-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13855955-BEC0-4FF8-91BD-A8C056053E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{351403B4-9047-4B32-84D9-E1840FF79673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F9D77F4-70EB-4078-919C-51E8B0F886D9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C97B4B8D-73E8-46D4-BABC-46A19DC6370A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="272">
   <si>
     <t>Población cuya hipoacusia le limita en 2012 (Tasa respuesta: 1,58%)</t>
   </si>
@@ -100,7 +100,7 @@
     <t>77,19%</t>
   </si>
   <si>
-    <t>19,72%</t>
+    <t>32,09%</t>
   </si>
   <si>
     <t>40,53%</t>
@@ -115,7 +115,7 @@
     <t>22,81%</t>
   </si>
   <si>
-    <t>80,28%</t>
+    <t>67,91%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -130,7 +130,7 @@
     <t>71,39%</t>
   </si>
   <si>
-    <t>31,77%</t>
+    <t>32,02%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -142,7 +142,7 @@
     <t>28,61%</t>
   </si>
   <si>
-    <t>68,23%</t>
+    <t>67,98%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -157,10 +157,10 @@
     <t>62,53%</t>
   </si>
   <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>60,42%</t>
@@ -172,10 +172,10 @@
     <t>37,47%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -184,166 +184,166 @@
     <t>68,72%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>31,95%</t>
   </si>
   <si>
-    <t>66,5%</t>
+    <t>66,74%</t>
   </si>
   <si>
     <t>55,29%</t>
   </si>
   <si>
-    <t>29,4%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
   </si>
   <si>
     <t>79,91%</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>43,91%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya hipoacusia le limita en 2015 (Tasa respuesta: 1,75%)</t>
+    <t>Población cuya hipoacusia le limita en 2016 (Tasa respuesta: 1,75%)</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -355,15 +355,9 @@
     <t>24,45%</t>
   </si>
   <si>
-    <t>75,1%</t>
-  </si>
-  <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
     <t>24,81%</t>
   </si>
   <si>
@@ -373,7 +367,7 @@
     <t>19,88%</t>
   </si>
   <si>
-    <t>80,01%</t>
+    <t>79,82%</t>
   </si>
   <si>
     <t>75,19%</t>
@@ -385,13 +379,13 @@
     <t>80,12%</t>
   </si>
   <si>
-    <t>19,99%</t>
+    <t>20,18%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>58,81%</t>
+    <t>45,4%</t>
   </si>
   <si>
     <t>50,0%</t>
@@ -400,187 +394,187 @@
     <t>27,86%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>41,19%</t>
+    <t>54,6%</t>
   </si>
   <si>
     <t>72,14%</t>
   </si>
   <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>57,1%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>51,84%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
   </si>
   <si>
     <t>54,25%</t>
   </si>
   <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>42,9%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
   </si>
   <si>
     <t>48,16%</t>
   </si>
   <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
   </si>
   <si>
     <t>45,75%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
   </si>
   <si>
     <t>58,25%</t>
   </si>
   <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
   </si>
   <si>
     <t>45,15%</t>
   </si>
   <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
   </si>
   <si>
     <t>50,06%</t>
   </si>
   <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
   </si>
   <si>
     <t>41,75%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
   <si>
     <t>54,85%</t>
   </si>
   <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
   </si>
   <si>
     <t>49,94%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
   </si>
   <si>
     <t>51,19%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>44,67%</t>
   </si>
   <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
   </si>
   <si>
     <t>47,3%</t>
   </si>
   <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
   </si>
   <si>
     <t>48,81%</t>
   </si>
   <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
   </si>
   <si>
     <t>55,33%</t>
   </si>
   <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
   </si>
   <si>
     <t>52,7%</t>
   </si>
   <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
   </si>
   <si>
     <t>Población cuya hipoacusia le limita en 2023 (Tasa respuesta: 6,37%)</t>
@@ -1271,7 +1265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B1F2AF-65CA-4CA1-B098-A3956CB0461A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74EE9AF-7DCF-456D-B458-6A5DB8185DC4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2472,7 +2466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158F9228-7633-4EDE-8468-97A9CD5EDBBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55534674-8EF7-478D-99AD-860F84BF37B5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2764,7 +2758,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2779,7 +2773,7 @@
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,10 +2801,10 @@
         <v>2697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -2822,10 +2816,10 @@
         <v>2697</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2909,13 +2903,13 @@
         <v>922</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2924,13 +2918,13 @@
         <v>922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,10 +2954,10 @@
         <v>2796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -2975,10 +2969,10 @@
         <v>3716</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3049,13 +3043,13 @@
         <v>1086</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3064,7 +3058,7 @@
         <v>2191</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
@@ -3079,13 +3073,13 @@
         <v>3277</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,10 +3094,10 @@
         <v>6295</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -3115,7 +3109,7 @@
         <v>2191</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
@@ -3130,13 +3124,13 @@
         <v>8486</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3198,13 @@
         <v>6741</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3219,13 +3213,13 @@
         <v>7233</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3234,13 +3228,13 @@
         <v>13974</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,13 +3249,13 @@
         <v>5063</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3270,13 +3264,13 @@
         <v>6720</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3285,13 +3279,13 @@
         <v>11783</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3353,13 @@
         <v>16267</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -3374,13 +3368,13 @@
         <v>21016</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -3389,13 +3383,13 @@
         <v>37282</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3404,13 @@
         <v>11658</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -3425,13 +3419,13 @@
         <v>25528</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -3440,13 +3434,13 @@
         <v>37186</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,13 +3508,13 @@
         <v>25100</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -3529,13 +3523,13 @@
         <v>32235</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>55</v>
@@ -3544,13 +3538,13 @@
         <v>57335</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,13 +3559,13 @@
         <v>23937</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -3580,13 +3574,13 @@
         <v>39931</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>60</v>
@@ -3595,13 +3589,13 @@
         <v>63868</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,7 +3673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EBA33B-4892-4D0D-B215-FB9BF42FBE79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CAFF9B-B3C7-4304-ABD7-C60AFAF091A1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3696,7 +3690,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3967,13 +3961,13 @@
         <v>1616</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3982,13 +3976,13 @@
         <v>1616</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,10 +4012,10 @@
         <v>5279</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -4033,10 +4027,10 @@
         <v>6542</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -4107,13 +4101,13 @@
         <v>2571</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4122,7 +4116,7 @@
         <v>737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
@@ -4137,13 +4131,13 @@
         <v>3308</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,10 +4152,10 @@
         <v>6765</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -4173,7 +4167,7 @@
         <v>626</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
@@ -4188,13 +4182,13 @@
         <v>7391</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4256,13 @@
         <v>8197</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4277,13 +4271,13 @@
         <v>5130</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4292,13 +4286,13 @@
         <v>13327</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4307,13 @@
         <v>13628</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -4328,13 +4322,13 @@
         <v>10769</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -4343,13 +4337,13 @@
         <v>24397</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4411,13 @@
         <v>7933</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -4432,13 +4426,13 @@
         <v>6809</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -4447,13 +4441,13 @@
         <v>14742</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4462,13 @@
         <v>27252</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -4483,13 +4477,13 @@
         <v>15119</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -4498,13 +4492,13 @@
         <v>42371</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4566,13 @@
         <v>32664</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H19" s="7">
         <v>112</v>
@@ -4587,13 +4581,13 @@
         <v>60012</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -4602,13 +4596,13 @@
         <v>92676</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4617,13 @@
         <v>63312</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -4638,13 +4632,13 @@
         <v>67739</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M20" s="7">
         <v>247</v>
@@ -4653,13 +4647,13 @@
         <v>131051</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4721,13 @@
         <v>51365</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>136</v>
@@ -4742,13 +4736,13 @@
         <v>74305</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M22" s="7">
         <v>206</v>
@@ -4757,13 +4751,13 @@
         <v>125670</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4772,13 @@
         <v>112219</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H23" s="7">
         <v>187</v>
@@ -4793,13 +4787,13 @@
         <v>102264</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M23" s="7">
         <v>351</v>
@@ -4808,13 +4802,13 @@
         <v>214483</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
